--- a/Our_Labs/Lab_3/Arkusz.xlsx
+++ b/Our_Labs/Lab_3/Arkusz.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F73CF2B-A9E1-447D-B82B-48F04D5B392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA258B70-4240-492D-B0F6-42C0DADFCA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Uz, V</t>
   </si>
@@ -36,11 +36,14 @@
   <si>
     <t>d, cm</t>
   </si>
+  <si>
+    <t>wykresy znikły bo zapisałem arkusz początkowo w formacie który wydawał mi się "uniwersalny" nie tylko dla exela. Na szczęście umieściłem je wcześniej w wordzie xD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,7 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,6 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,11 +914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1132,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1142,7 +1146,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1155,8 +1159,26 @@
       <c r="F18" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1170,7 +1192,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1184,7 +1206,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1198,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1212,7 +1234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1226,7 +1248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1240,7 +1262,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1254,7 +1276,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1268,7 +1290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1282,7 +1304,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1296,7 +1318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1304,7 +1326,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1312,7 +1334,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1320,7 +1342,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>

--- a/Our_Labs/Lab_3/Arkusz.xlsx
+++ b/Our_Labs/Lab_3/Arkusz.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piter\Desktop\Git_repos\Fizyka\Our_Labs\Lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50F538F-617D-41DB-A647-3560C188C593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5861F6-6DFD-47EA-A99C-06CD5F39DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Uz, V</t>
   </si>
@@ -55,6 +54,12 @@
   </si>
   <si>
     <t>d^ (-2)</t>
+  </si>
+  <si>
+    <t>Rys. 1</t>
+  </si>
+  <si>
+    <t>Rys.2</t>
   </si>
 </sst>
 </file>
@@ -603,369 +608,6 @@
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25885992874554697"/>
-          <c:y val="3.9948883209245403E-2"/>
-          <c:w val="0.71485717857366105"/>
-          <c:h val="0.47749749972219102"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$F$33:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.7777777777777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9726516052318666E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1887755102040814E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4293552812071328E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6982248520710058E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3402777777777775E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7258979206049151E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1652892561983473E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.6689342403628119E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2500000000000001E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$E$33:$E$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.73</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-90E9-4049-988B-DAA6DB13485A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="20067966"/>
-        <c:axId val="31453114"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="20067966"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>d^ (-2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31453114"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="31453114"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Ia [µA]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="4.3124999999999997E-2"/>
-              <c:y val="0.28322222222222199"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="20067966"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -982,42 +624,94 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2898984972011225E-2"/>
-          <c:y val="6.7170445004198151E-2"/>
-          <c:w val="0.84896925494932585"/>
-          <c:h val="0.81797391195118241"/>
+          <c:x val="0.1063167204731956"/>
+          <c:y val="5.0377833753148617E-2"/>
+          <c:w val="0.85855327601013642"/>
+          <c:h val="0.83812504545244171"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="002060">
+                    <a:alpha val="98000"/>
+                  </a:srgbClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$2:$D$11</c:f>
@@ -1096,7 +790,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D66E-4117-9883-BC565FB9AC79}"/>
@@ -1118,6 +812,8 @@
         <c:axId val="345787967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1169,7 +865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="348752319"/>
@@ -1180,6 +876,8 @@
         <c:axId val="348752319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1231,7 +929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="345787967"/>
@@ -1272,7 +970,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1280,6 +978,1564 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10527185691996672"/>
+          <c:y val="1.9302446938227212E-2"/>
+          <c:w val="0.86997873594677666"/>
+          <c:h val="0.85597342402778642"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$16:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$16:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-992E-4D81-9B96-54118AC4D7D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1196532816"/>
+        <c:axId val="1007426272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1196532816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="230"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007426272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1007426272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196532816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10596536743574794"/>
+          <c:y val="3.5727858573944393E-2"/>
+          <c:w val="0.86651658020939715"/>
+          <c:h val="0.85575691098314188"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$16:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$16:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EFC-4F79-AAA5-39A39A5F637F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472264240"/>
+        <c:axId val="1202803104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472264240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202803104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1202803104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472264240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11760599043742599"/>
+          <c:y val="3.5159823672351716E-2"/>
+          <c:w val="0.83719656504623496"/>
+          <c:h val="0.85233427755622859"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$33:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.7777777777777778E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9726516052318666E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1887755102040814E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4293552812071328E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6982248520710058E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3402777777777775E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7258979206049151E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1652892561983473E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6689342403628119E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2500000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$33:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58F5-467F-AC55-96ADD34A76AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="907379680"/>
+        <c:axId val="898353088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="907379680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.5000000000000011E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898353088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="898353088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907379680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12232256572344252"/>
+          <c:y val="3.5810926510954501E-2"/>
+          <c:w val="0.84736906844857596"/>
+          <c:h val="0.84959974816997696"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="2.5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$33:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$33:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F50E-4260-AD94-C9CEC93E7E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="724455008"/>
+        <c:axId val="996759872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="724455008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="63"/>
+          <c:min val="38"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996759872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="996759872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724455008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1323,6 +2579,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1839,56 +3255,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>561600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:colOff>510791</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82516</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1907,13 +5351,1576 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="513346" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="pole tekstowe 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D37F2A8-5F26-27F6-9901-CA489F77648C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12412980" y="3832860"/>
+          <a:ext cx="513346" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t> [V]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509385</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>87745</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1BFB0F-E7BF-0B97-EB31-F6BFEF34FD49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>474856</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="674816" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="pole tekstowe 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C26246F-6AF5-5E59-4DC1-FEF81094D9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6258436" y="4358640"/>
+          <a:ext cx="674816" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t>a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>[µA]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100924</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>268745</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55294AB-FB11-43C2-F260-7C409F9FDE6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>515845</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>81992</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>143879</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF188293-FC3B-08A7-84CF-9D5BD263B5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>187037</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>306285</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57396</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF2720C-D61D-7073-555A-02EE9D344D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.01427</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08157</cdr:x>
+      <cdr:y>0.08743</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D37F2A8-5F26-27F6-9901-CA489F77648C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="53435"/>
+          <a:ext cx="542026" cy="273867"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t> [µA]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91831</cdr:x>
+      <cdr:y>0.93098</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C26246F-6AF5-5E59-4DC1-FEF81094D9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6097629" y="3568677"/>
+          <a:ext cx="542434" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t>z </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>[V]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08732</cdr:x>
+      <cdr:y>0.06766</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C26246F-6AF5-5E59-4DC1-FEF81094D9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="575242" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t>a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>[µA]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92248</cdr:x>
+      <cdr:y>0.93091</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99965</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D37F2A8-5F26-27F6-9901-CA489F77648C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6108615" y="3564490"/>
+          <a:ext cx="511037" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>P [W]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.10204</cdr:x>
+      <cdr:y>0.06658</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C26246F-6AF5-5E59-4DC1-FEF81094D9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="674816" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t>a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>[µA]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.89312</cdr:x>
+      <cdr:y>0.93358</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E827CCF2-0460-0C4E-0D3C-645824F687BA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5926536" y="3718665"/>
+          <a:ext cx="709255" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="30000"/>
+            <a:t>-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>[cm]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.00592</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08797</cdr:x>
+      <cdr:y>0.07359</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FA4761-69CF-8755-54E5-3F3B6B7C73A2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="23091"/>
+          <a:ext cx="573558" cy="264002"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t>a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>[µA]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91421</cdr:x>
+      <cdr:y>0.93089</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769BFE2F-73F4-BE88-05AC-2D5B07A25BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5960719" y="3631444"/>
+          <a:ext cx="559329" cy="269600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="-25000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" b="1" baseline="0"/>
+            <a:t>[cm]</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2213,20 +7220,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +7247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2254,7 +7261,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2267,8 +7274,11 @@
       <c r="E3">
         <v>0.74</v>
       </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>10</v>
       </c>
@@ -2276,7 +7286,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>20</v>
       </c>
@@ -2284,7 +7294,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>30</v>
       </c>
@@ -2292,7 +7302,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>40</v>
       </c>
@@ -2300,7 +7310,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>50</v>
       </c>
@@ -2308,7 +7318,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>60</v>
       </c>
@@ -2316,7 +7326,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>70</v>
       </c>
@@ -2324,7 +7334,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>75</v>
       </c>
@@ -2332,10 +7342,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2352,7 +7362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +7379,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>65</v>
       </c>
@@ -2380,7 +7390,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>80</v>
       </c>
@@ -2391,7 +7401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>95</v>
       </c>
@@ -2402,7 +7412,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>110</v>
       </c>
@@ -2413,7 +7423,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>125</v>
       </c>
@@ -2424,7 +7434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>140</v>
       </c>
@@ -2435,7 +7445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>155</v>
       </c>
@@ -2446,7 +7456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>170</v>
       </c>
@@ -2456,8 +7466,11 @@
       <c r="F24">
         <v>28.5</v>
       </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>185</v>
       </c>
@@ -2468,7 +7481,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>200</v>
       </c>
@@ -2479,7 +7492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>210</v>
       </c>
@@ -2490,7 +7503,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>220</v>
       </c>
@@ -2501,10 +7514,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2521,7 +7534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +7552,7 @@
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2557,7 +7570,7 @@
         <v>2.9726516052318666E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>56</v>
       </c>
@@ -2569,7 +7582,7 @@
         <v>3.1887755102040814E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>54</v>
       </c>
@@ -2581,7 +7594,7 @@
         <v>3.4293552812071328E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>52</v>
       </c>
@@ -2593,7 +7606,7 @@
         <v>3.6982248520710058E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>50</v>
       </c>
@@ -2605,7 +7618,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>48</v>
       </c>
@@ -2617,7 +7630,7 @@
         <v>4.3402777777777775E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>46</v>
       </c>
@@ -2629,7 +7642,7 @@
         <v>4.7258979206049151E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>44</v>
       </c>
@@ -2641,7 +7654,7 @@
         <v>5.1652892561983473E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>42</v>
       </c>
@@ -2653,7 +7666,7 @@
         <v>5.6689342403628119E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>40</v>
       </c>
@@ -2665,7 +7678,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Our_Labs/Lab_3/Arkusz.xlsx
+++ b/Our_Labs/Lab_3/Arkusz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piter\Desktop\Git_repos\Fizyka\Our_Labs\Lab_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5861F6-6DFD-47EA-A99C-06CD5F39DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C7825-6873-43A5-9CC0-20E36C01422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Uz, V</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Rys.2</t>
+  </si>
+  <si>
+    <t>klasa miernika</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>zakres</t>
+  </si>
+  <si>
+    <t>błąd miernika</t>
+  </si>
+  <si>
+    <t>błąd V</t>
+  </si>
+  <si>
+    <t>Błąd A</t>
   </si>
 </sst>
 </file>
@@ -5426,16 +5444,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>509385</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139271</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:rowOff>13426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>87745</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>305460</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>74386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7220,10 +7238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7231,6 +7249,7 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7246,6 +7265,12 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7260,6 +7285,14 @@
       <c r="E2">
         <v>0.12</v>
       </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F11" si="0">D2*0.3%*1*1</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*1.5%*2*0.01</f>
+        <v>3.6000000000000001E-5</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7274,6 +7307,14 @@
       <c r="E3">
         <v>0.74</v>
       </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">E3*1.5%*2*0.01</f>
+        <v>2.2199999999999998E-4</v>
+      </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
@@ -7285,6 +7326,14 @@
       <c r="E4">
         <v>0.8</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5">
@@ -7293,6 +7342,14 @@
       <c r="E5">
         <v>0.82</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.4599999999999996E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6">
@@ -7301,6 +7358,14 @@
       <c r="E6">
         <v>0.85</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999996E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7">
@@ -7309,6 +7374,14 @@
       <c r="E7">
         <v>0.86</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.5799999999999998E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8">
@@ -7317,6 +7390,14 @@
       <c r="E8">
         <v>0.88</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.6400000000000002E-4</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9">
@@ -7325,6 +7406,14 @@
       <c r="E9">
         <v>0.89</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.6699999999999998E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10">
@@ -7333,6 +7422,14 @@
       <c r="E10">
         <v>0.89</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.6699999999999998E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11">
@@ -7340,6 +7437,14 @@
       </c>
       <c r="E11">
         <v>0.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.7E-4</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7548,7 +7653,7 @@
         <v>0.43</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F43" si="0">D33 ^(-2)</f>
+        <f t="shared" ref="F33:F43" si="2">D33 ^(-2)</f>
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
@@ -7566,7 +7671,7 @@
         <v>0.44</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9726516052318666E-4</v>
       </c>
     </row>
@@ -7578,7 +7683,7 @@
         <v>0.45</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1887755102040814E-4</v>
       </c>
     </row>
@@ -7590,7 +7695,7 @@
         <v>0.47</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4293552812071328E-4</v>
       </c>
     </row>
@@ -7602,7 +7707,7 @@
         <v>0.48</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6982248520710058E-4</v>
       </c>
     </row>
@@ -7614,7 +7719,7 @@
         <v>0.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -7626,7 +7731,7 @@
         <v>0.52</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3402777777777775E-4</v>
       </c>
     </row>
@@ -7638,7 +7743,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.7258979206049151E-4</v>
       </c>
     </row>
@@ -7650,7 +7755,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1652892561983473E-4</v>
       </c>
     </row>
@@ -7662,7 +7767,7 @@
         <v>0.64</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6689342403628119E-4</v>
       </c>
     </row>
@@ -7674,11 +7779,34 @@
         <v>0.73</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>90</v>
+      </c>
+      <c r="F46" t="e">
+        <f>(D46*E46)/100</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Our_Labs/Lab_3/Arkusz.xlsx
+++ b/Our_Labs/Lab_3/Arkusz.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t xml:space="preserve">Uz, V</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">d^ (-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">błąd d^(-2)</t>
   </si>
   <si>
     <t xml:space="preserve">błąd d, cm</t>
@@ -255,7 +258,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -451,11 +454,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="39351768"/>
-        <c:axId val="26855376"/>
+        <c:axId val="17021453"/>
+        <c:axId val="35216833"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39351768"/>
+        <c:axId val="17021453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -499,12 +502,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26855376"/>
+        <c:crossAx val="35216833"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26855376"/>
+        <c:axId val="35216833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -548,7 +551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39351768"/>
+        <c:crossAx val="17021453"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -577,7 +580,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -791,11 +794,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="28485756"/>
-        <c:axId val="17173305"/>
+        <c:axId val="53021319"/>
+        <c:axId val="98492316"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28485756"/>
+        <c:axId val="53021319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="230"/>
@@ -839,12 +842,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17173305"/>
+        <c:crossAx val="98492316"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17173305"/>
+        <c:axId val="98492316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -887,7 +890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28485756"/>
+        <c:crossAx val="53021319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -918,7 +921,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1132,11 +1135,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2468462"/>
-        <c:axId val="14389899"/>
+        <c:axId val="71784151"/>
+        <c:axId val="12657992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2468462"/>
+        <c:axId val="71784151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1179,12 +1182,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14389899"/>
+        <c:crossAx val="12657992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14389899"/>
+        <c:axId val="12657992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -1227,7 +1230,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2468462"/>
+        <c:crossAx val="71784151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1256,7 +1259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1459,11 +1462,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="33599600"/>
-        <c:axId val="89408200"/>
+        <c:axId val="95990765"/>
+        <c:axId val="56041181"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33599600"/>
+        <c:axId val="95990765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.00025"/>
@@ -1506,12 +1509,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89408200"/>
+        <c:crossAx val="56041181"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89408200"/>
+        <c:axId val="56041181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1554,7 +1557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33599600"/>
+        <c:crossAx val="95990765"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1583,7 +1586,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1786,11 +1789,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58089743"/>
-        <c:axId val="73633360"/>
+        <c:axId val="25963657"/>
+        <c:axId val="80684710"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58089743"/>
+        <c:axId val="25963657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="63"/>
@@ -1834,12 +1837,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73633360"/>
+        <c:crossAx val="80684710"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73633360"/>
+        <c:axId val="80684710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75"/>
@@ -1883,7 +1886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58089743"/>
+        <c:crossAx val="25963657"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2894,8 +2897,8 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3455,6 +3458,12 @@
       <c r="F32" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="G32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -3473,6 +3482,14 @@
         <f aca="false">D33 ^(-2)</f>
         <v>0.000277777777777778</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">(2*D33^(-3))*0.1</f>
+        <v>9.25925925925926E-007</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">E33*1.5%*2*0.01</f>
+        <v>0.000129</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -3491,6 +3508,14 @@
         <f aca="false">D34 ^(-2)</f>
         <v>0.000297265160523187</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">(2*D34^(-3))*0.1</f>
+        <v>1.02505227766616E-006</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">E34*1.5%*2*0.01</f>
+        <v>0.000132</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="n">
@@ -3503,6 +3528,14 @@
         <f aca="false">D35 ^(-2)</f>
         <v>0.000318877551020408</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">(2*D35^(-3))*0.1</f>
+        <v>1.13884839650146E-006</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">E35*1.5%*2*0.01</f>
+        <v>0.000135</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="n">
@@ -3515,6 +3548,14 @@
         <f aca="false">D36 ^(-2)</f>
         <v>0.000342935528120713</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">(2*D36^(-3))*0.1</f>
+        <v>1.27013158563227E-006</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">E36*1.5%*2*0.01</f>
+        <v>0.000141</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="n">
@@ -3527,6 +3568,14 @@
         <f aca="false">D37 ^(-2)</f>
         <v>0.000369822485207101</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">(2*D37^(-3))*0.1</f>
+        <v>1.42239417387346E-006</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">E37*1.5%*2*0.01</f>
+        <v>0.000144</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="n">
@@ -3539,6 +3588,14 @@
         <f aca="false">D38 ^(-2)</f>
         <v>0.0004</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">(2*D38^(-3))*0.1</f>
+        <v>1.6E-006</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">E38*1.5%*2*0.01</f>
+        <v>0.00015</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="n">
@@ -3551,6 +3608,14 @@
         <f aca="false">D39 ^(-2)</f>
         <v>0.000434027777777778</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">(2*D39^(-3))*0.1</f>
+        <v>1.80844907407407E-006</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">E39*1.5%*2*0.01</f>
+        <v>0.000156</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="n">
@@ -3563,6 +3628,14 @@
         <f aca="false">D40 ^(-2)</f>
         <v>0.000472589792060492</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">(2*D40^(-3))*0.1</f>
+        <v>2.05473822634996E-006</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">E40*1.5%*2*0.01</f>
+        <v>0.000165</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D41" s="0" t="n">
@@ -3575,6 +3648,14 @@
         <f aca="false">D41 ^(-2)</f>
         <v>0.000516528925619835</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">(2*D41^(-3))*0.1</f>
+        <v>2.34785875281743E-006</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">E41*1.5%*2*0.01</f>
+        <v>0.000174</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="n">
@@ -3587,6 +3668,14 @@
         <f aca="false">D42 ^(-2)</f>
         <v>0.000566893424036281</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">(2*D42^(-3))*0.1</f>
+        <v>2.69949249541086E-006</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <f aca="false">E42*1.5%*2*0.01</f>
+        <v>0.000192</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="n">
@@ -3599,11 +3688,19 @@
         <f aca="false">D43 ^(-2)</f>
         <v>0.000625</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">(2*D43^(-3))*0.1</f>
+        <v>3.125E-006</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <f aca="false">E43*1.5%*2*0.01</f>
+        <v>0.000219</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Our_Labs/Lab_3/Arkusz.xlsx
+++ b/Our_Labs/Lab_3/Arkusz.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECCB40F-068C-409F-8A03-9FF311C6B732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -19,57 +35,81 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
-    <t xml:space="preserve">Uz, V</t>
+    <t>Uz, V</t>
   </si>
   <si>
-    <t xml:space="preserve">Uf, V</t>
+    <t>Uf, V</t>
   </si>
   <si>
-    <t xml:space="preserve">Ia, µA</t>
+    <t>Ia, µA</t>
   </si>
   <si>
-    <t xml:space="preserve">błąd V</t>
+    <t>błąd V</t>
   </si>
   <si>
-    <t xml:space="preserve">Błąd A</t>
+    <t>Błąd A</t>
   </si>
   <si>
-    <t xml:space="preserve">P, W</t>
+    <t>P, W</t>
   </si>
   <si>
-    <t xml:space="preserve">d, cm</t>
+    <t>d, cm</t>
   </si>
   <si>
-    <t xml:space="preserve">Rys. 1</t>
+    <t>Rys. 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Błąd V</t>
+    <t>Błąd V</t>
   </si>
   <si>
-    <t xml:space="preserve">Błąd P</t>
+    <t>Błąd P</t>
   </si>
   <si>
-    <t xml:space="preserve">d^ (-2)</t>
+    <t>d^ (-2)</t>
   </si>
   <si>
-    <t xml:space="preserve">błąd d^(-2)</t>
+    <t>błąd d^(-2)</t>
   </si>
   <si>
-    <t xml:space="preserve">błąd d, cm</t>
+    <t>błąd d, cm</t>
+  </si>
+  <si>
+    <t>błąd V/2</t>
+  </si>
+  <si>
+    <t>Błąd A/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,60 +118,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -144,7 +134,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -152,49 +142,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -253,15 +212,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -270,10 +247,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.106310013717421"/>
-          <c:y val="0.0503569728700619"/>
-          <c:w val="0.858499525166192"/>
-          <c:h val="0.838077106139933"/>
+          <c:x val="0.10631001371742101"/>
+          <c:y val="5.0356972870061897E-2"/>
+          <c:w val="0.85849952516619199"/>
+          <c:h val="0.83807710613993303"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -283,9 +260,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -300,18 +274,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -320,8 +302,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -330,26 +313,24 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="19080" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="4472c4"/>
+                  <a:srgbClr val="4472C4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
                 <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="2"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -362,9 +343,9 @@
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="1"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -376,38 +357,35 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$2:$D$11</c:f>
+              <c:f>Arkusz1!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
@@ -415,45 +393,55 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$2:$E$11</c:f>
+              <c:f>Arkusz1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.12</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B0D-432C-94E8-CF2478FFB683}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="17021453"/>
         <c:axId val="35216833"/>
       </c:scatterChart>
@@ -470,7 +458,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -483,7 +471,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -493,13 +481,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="35216833"/>
@@ -519,7 +508,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -532,7 +521,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -542,13 +531,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17021453"/>
@@ -564,26 +554,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -592,10 +590,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.105271514766593"/>
-          <c:y val="0.0193452380952381"/>
-          <c:w val="0.869958717053033"/>
-          <c:h val="0.855933779761905"/>
+          <c:x val="0.10527151476659299"/>
+          <c:y val="1.9345238095238099E-2"/>
+          <c:w val="0.86995871705303296"/>
+          <c:h val="0.85593377976190499"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -605,9 +603,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -622,18 +617,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -642,8 +645,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -652,26 +656,24 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="19080" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="4472c4"/>
+                  <a:srgbClr val="4472C4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
                 <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="2"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -684,9 +686,9 @@
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="1"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -781,7 +783,7 @@
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.75</c:v>
@@ -793,7 +795,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1E4-4CE9-B303-50FB4227A5D1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="53021319"/>
         <c:axId val="98492316"/>
       </c:scatterChart>
@@ -810,7 +825,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -823,7 +838,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -833,13 +848,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98492316"/>
@@ -858,7 +874,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -871,7 +887,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -881,13 +897,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="53021319"/>
@@ -898,33 +915,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -934,9 +959,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.105937136204889"/>
-          <c:y val="0.0357243583717214"/>
-          <c:w val="0.866493808868663"/>
-          <c:h val="0.855692394472126"/>
+          <c:y val="3.5724358371721401E-2"/>
+          <c:w val="0.86649380886866301"/>
+          <c:h val="0.85900953843582184"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -946,9 +971,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -963,18 +985,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -983,8 +1013,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -993,26 +1024,23 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="4472c4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
-                <a:round/>
               </a:ln>
             </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="2"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -1025,9 +1053,9 @@
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="2"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -1039,6 +1067,54 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
+              <c:f>Arkusz1!$F$16:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Arkusz1!$E$16:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1074,67 +1150,32 @@
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$F$16:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95F0-4C84-A4D1-C13186287D7B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="71784151"/>
         <c:axId val="12657992"/>
       </c:scatterChart>
@@ -1142,7 +1183,8 @@
         <c:axId val="71784151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
+          <c:max val="45"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1150,7 +1192,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1163,7 +1205,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1173,13 +1215,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="12657992"/>
@@ -1190,7 +1233,8 @@
         <c:axId val="12657992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1198,7 +1242,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1211,7 +1255,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1221,13 +1265,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="71784151"/>
@@ -1243,26 +1288,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1272,8 +1325,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.117594159966145"/>
-          <c:y val="0.0351884433743865"/>
-          <c:w val="0.837177316969954"/>
+          <c:y val="3.5188443374386501E-2"/>
+          <c:w val="0.83717731696995401"/>
           <c:h val="0.852301138994351"/>
         </c:manualLayout>
       </c:layout>
@@ -1284,9 +1337,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -1301,18 +1351,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1321,8 +1379,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1331,9 +1390,9 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="19080" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="4472c4"/>
+                  <a:srgbClr val="4472C4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
                 <a:round/>
@@ -1341,17 +1400,15 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="1"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -1364,9 +1421,9 @@
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="1"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -1383,37 +1440,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000277777777777778</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000297265160523187</c:v>
+                  <c:v>2.9726516052318666E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000318877551020408</c:v>
+                  <c:v>3.1887755102040814E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000342935528120713</c:v>
+                  <c:v>3.4293552812071328E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000369822485207101</c:v>
+                  <c:v>3.6982248520710058E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0004</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000434027777777778</c:v>
+                  <c:v>4.3402777777777775E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000472589792060492</c:v>
+                  <c:v>4.7258979206049151E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000516528925619835</c:v>
+                  <c:v>5.1652892561983473E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000566893424036281</c:v>
+                  <c:v>5.6689342403628119E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.000625</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,10 +1503,10 @@
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.64</c:v>
@@ -1461,7 +1518,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A27-428F-A56D-626E557AEFCC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="95990765"/>
         <c:axId val="56041181"/>
       </c:scatterChart>
@@ -1469,7 +1539,7 @@
         <c:axId val="95990765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.00025"/>
+          <c:min val="2.5000000000000001E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1477,7 +1547,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1490,7 +1560,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1500,13 +1570,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="56041181"/>
@@ -1525,7 +1596,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1538,7 +1609,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1548,13 +1619,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95990765"/>
@@ -1570,26 +1642,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1599,9 +1679,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.122308676188446"/>
-          <c:y val="0.0357981772056751"/>
+          <c:y val="3.5798177205675102E-2"/>
           <c:w val="0.847314005542528"/>
-          <c:h val="0.849478530489524"/>
+          <c:h val="0.84947853048952404"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1611,9 +1691,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -1628,18 +1705,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1648,8 +1733,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1658,9 +1744,9 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="19080" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="4472c4"/>
+                  <a:srgbClr val="4472C4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
                 <a:round/>
@@ -1668,17 +1754,15 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="0"/>
+            <c:val val="1"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -1693,7 +1777,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="2.5"/>
+            <c:val val="0.70000000000000007"/>
             <c:spPr>
               <a:ln w="9360">
                 <a:solidFill>
@@ -1773,10 +1857,10 @@
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.64</c:v>
@@ -1788,7 +1872,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D331-4648-B282-8FA983F3A045}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="25963657"/>
         <c:axId val="80684710"/>
       </c:scatterChart>
@@ -1805,7 +1902,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1818,7 +1915,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1828,13 +1925,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80684710"/>
@@ -1854,7 +1952,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1867,7 +1965,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1877,13 +1975,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25963657"/>
@@ -1899,24 +1998,30 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1930,14 +2035,20 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Wykres 2"/>
+        <xdr:cNvPr id="2" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8719560" y="0"/>
-        <a:ext cx="6823080" cy="3781440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1949,26 +2060,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>389910</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>289470</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="pole tekstowe 3"/>
+        <xdr:cNvPr id="3" name="pole tekstowe 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13593600" y="3832920"/>
-          <a:ext cx="502560" cy="249480"/>
+          <a:off x="14229735" y="3528240"/>
+          <a:ext cx="471060" cy="249180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1979,15 +2096,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1995,7 +2119,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2004,7 +2128,7 @@
             <a:t>U</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2013,7 +2137,7 @@
             <a:t>f</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2021,7 +2145,7 @@
             </a:rPr>
             <a:t> [V]</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="pl-PL" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2042,14 +2166,20 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 4"/>
+        <xdr:cNvPr id="4" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8123040" y="4394880"/>
-        <a:ext cx="6801840" cy="3870360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2072,9 +2202,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="pole tekstowe 5"/>
+        <xdr:cNvPr id="5" name="pole tekstowe 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2091,15 +2227,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -2107,7 +2250,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2116,7 +2259,7 @@
             <a:t>I</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2125,7 +2268,7 @@
             <a:t>a </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2133,7 +2276,7 @@
             </a:rPr>
             <a:t>[µA]</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="pl-PL" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2154,14 +2297,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Wykres 6"/>
+        <xdr:cNvPr id="6" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15926760" y="256680"/>
-        <a:ext cx="6803280" cy="3828960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2184,14 +2333,20 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Wykres 9"/>
+        <xdr:cNvPr id="9" name="Wykres 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7037280" y="8614080"/>
-        <a:ext cx="7060680" cy="3881520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2214,14 +2369,20 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Wykres 10"/>
+        <xdr:cNvPr id="12" name="Wykres 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15410160" y="4417200"/>
-        <a:ext cx="6754320" cy="3831120"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2235,55 +2396,68 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <cdr:relSizeAnchor>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0</cdr:x>
-      <cdr:y>0.014278914802475</cdr:y>
+      <cdr:y>0.01428</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.0815131370686926</cdr:x>
-      <cdr:y>0.0872917658257972</cdr:y>
+      <cdr:x>0.08151</cdr:x>
+      <cdr:y>0.08729</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="1" name="pole tekstowe 3"/>
+        <cdr:cNvPr id="2" name="pole tekstowe 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68ED2F20-0344-5CF7-140E-C73500DFF399}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="54000"/>
           <a:ext cx="556200" cy="276120"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2292,7 +2466,7 @@
             <a:t>I</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2301,7 +2475,7 @@
             <a:t>f</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2309,7 +2483,7 @@
             </a:rPr>
             <a:t> [µA]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2320,55 +2494,62 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <cdr:relSizeAnchor>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.918280935746798</cdr:x>
-      <cdr:y>0.930896577380952</cdr:y>
+      <cdr:x>0.91828</cdr:x>
+      <cdr:y>0.9309</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.999894146289827</cdr:x>
-      <cdr:y>0.996279761904762</cdr:y>
+      <cdr:x>0.99989</cdr:x>
+      <cdr:y>0.99628</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="4" name="pole tekstowe 5"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="6246000" y="3603240"/>
           <a:ext cx="555120" cy="253080"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2377,7 +2558,7 @@
             <a:t>U</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2386,7 +2567,7 @@
             <a:t>z </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2394,7 +2575,7 @@
             </a:rPr>
             <a:t>[V]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2405,55 +2586,62 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <cdr:relSizeAnchor>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0</cdr:x>
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.0872579108900413</cdr:x>
-      <cdr:y>0.0660900629876845</cdr:y>
+      <cdr:x>0.08726</cdr:x>
+      <cdr:y>0.06609</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="7" name="pole tekstowe 5"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
           <a:ext cx="593640" cy="253080"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2462,7 +2650,7 @@
             <a:t>I</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2471,7 +2659,7 @@
             <a:t>a </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2479,61 +2667,68 @@
             </a:rPr>
             <a:t>[µA]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.924118954386708</cdr:x>
-      <cdr:y>0.93080755852214</cdr:y>
+      <cdr:x>0.92412</cdr:x>
+      <cdr:y>0.93081</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9977775425971</cdr:x>
-      <cdr:y>0.992009025101062</cdr:y>
+      <cdr:x>0.99778</cdr:x>
+      <cdr:y>0.99201</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="8" name="pole tekstowe 3"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="6287040" y="3564360"/>
           <a:ext cx="501120" cy="234360"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2541,7 +2736,7 @@
             </a:rPr>
             <a:t>P [W]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2552,55 +2747,62 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <cdr:relSizeAnchor>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0</cdr:x>
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.101988997037664</cdr:x>
-      <cdr:y>0.0650986202426151</cdr:y>
+      <cdr:x>0.10199</cdr:x>
+      <cdr:y>0.0651</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="10" name="pole tekstowe 5"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
           <a:ext cx="694080" cy="253080"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2609,7 +2811,7 @@
             <a:t>I</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2618,7 +2820,7 @@
             <a:t>a </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2626,61 +2828,68 @@
             </a:rPr>
             <a:t>[µA]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.893091409225561</cdr:x>
-      <cdr:y>0.933512362255764</cdr:y>
+      <cdr:x>0.89309</cdr:x>
+      <cdr:y>0.93351</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.999894202285231</cdr:x>
-      <cdr:y>0.998610982498379</cdr:y>
+      <cdr:x>0.99989</cdr:x>
+      <cdr:y>0.99861</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="11" name="pole tekstowe 5"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="6077880" y="3629160"/>
           <a:ext cx="726840" cy="253080"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2689,7 +2898,7 @@
             <a:t>d</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="30000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="30000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2698,7 +2907,7 @@
             <a:t>-2</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2707,7 +2916,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2715,7 +2924,7 @@
             </a:rPr>
             <a:t>[cm]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2726,55 +2935,62 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <cdr:relSizeAnchor>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0</cdr:x>
-      <cdr:y>0.00591938363243446</cdr:y>
+      <cdr:y>0.00592</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.0879343423577063</cdr:x>
-      <cdr:y>0.0719721882927746</cdr:y>
+      <cdr:x>0.08793</cdr:x>
+      <cdr:y>0.07197</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="13" name="pole tekstowe 5"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="22680"/>
           <a:ext cx="594000" cy="253080"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2783,7 +2999,7 @@
             <a:t>I</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2792,7 +3008,7 @@
             <a:t>a </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2800,61 +3016,68 @@
             </a:rPr>
             <a:t>[µA]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.914144105734385</cdr:x>
-      <cdr:y>0.930846565817909</cdr:y>
+      <cdr:x>0.91414</cdr:x>
+      <cdr:y>0.93085</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.999893412918354</cdr:x>
-      <cdr:y>0.996899370478249</cdr:y>
+      <cdr:x>0.99989</cdr:x>
+      <cdr:y>0.9969</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="14" name="pole tekstowe 5"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="6175080" y="3566520"/>
           <a:ext cx="579240" cy="253080"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2863,7 +3086,7 @@
             <a:t>d</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike" baseline="-25000">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2872,7 +3095,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="pl-PL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="pl-PL" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2880,7 +3103,7 @@
             </a:rPr>
             <a:t>[cm]</a:t>
           </a:r>
-          <a:endParaRPr b="0" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2890,832 +3113,1175 @@
 </c:userShapes>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="G43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.19"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>200</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>42</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="F2">
+        <f t="shared" ref="F2:F11" si="0">D2*0.3%*1*1</f>
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="G2">
+        <f t="shared" ref="G2:G11" si="1">E2*1.5%*2*0.01</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.74</v>
+      </c>
+      <c r="F3">
+        <f>D3*0.3%*1*1</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2.2199999999999998E-4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3:I11">F3:F11/2</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3:J11">G3:G11/2</f>
+        <v>1.1099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="I4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.82</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.4599999999999996E-4</v>
+      </c>
+      <c r="I5">
+        <v>0.03</v>
+      </c>
+      <c r="J5">
+        <v>1.2299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>0.85</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999996E-4</v>
+      </c>
+      <c r="I6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.2749999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>0.86</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">D2*0.3%*1*1</f>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.5799999999999998E-4</v>
+      </c>
+      <c r="I7">
+        <v>0.06</v>
+      </c>
+      <c r="J7">
+        <v>1.2899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>0.88</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="I8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.3200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0.89</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="I9">
+        <v>0.09</v>
+      </c>
+      <c r="J9">
+        <v>1.3349999999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>0.89</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="I10">
+        <v>0.105</v>
+      </c>
+      <c r="J10">
+        <v>1.3349999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.7E-4</v>
+      </c>
+      <c r="I11">
+        <v>0.1125</v>
+      </c>
+      <c r="J11">
+        <v>1.35E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">E2*1.5%*2*0.01</f>
-        <v>3.6E-005</v>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B16">
         <v>60</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>0.09</v>
+      </c>
+      <c r="F16">
+        <v>4.3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G28" si="2">(1*90)/100</f>
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:H28" si="3">E16*1.5%*2*0.01</f>
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I28" si="4">(0.5*100)/100</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>6.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>0.11</v>
+      </c>
+      <c r="F19">
+        <v>11.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>110</v>
+      </c>
+      <c r="E20">
+        <v>0.12</v>
+      </c>
+      <c r="F20">
+        <v>14.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>125</v>
+      </c>
+      <c r="E21">
+        <v>0.16</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7999999999999994E-5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>140</v>
+      </c>
+      <c r="E22">
+        <v>0.21</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2999999999999986E-5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>155</v>
+      </c>
+      <c r="E23">
+        <v>0.27</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>170</v>
+      </c>
+      <c r="E24">
+        <v>0.38</v>
+      </c>
+      <c r="F24">
+        <v>28.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>185</v>
+      </c>
+      <c r="E25">
+        <v>0.46</v>
+      </c>
+      <c r="F25">
+        <v>32.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F26">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.65E-4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>210</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+      <c r="F27">
+        <v>39.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999999E-4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>220</v>
+      </c>
+      <c r="E28">
+        <v>0.87</v>
+      </c>
+      <c r="F28">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>2.61E-4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>180</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>0.43</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F43" si="5">D33 ^(-2)</f>
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G43" si="6">(2*D33^(-3))*0.1</f>
+        <v>9.2592592592592594E-7</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ref="H33:H43" si="7">E33*1.5%*2*0.01</f>
+        <v>1.2899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">D3*0.3%*1*1</f>
-        <v>0.015</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">E3*1.5%*2*0.01</f>
-        <v>0.000222</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>7</v>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>0.44</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>2.9726516052318666E-4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>1.0250522776661609E-6</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">D4*0.3%*1*1</f>
-        <v>0.03</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">E4*1.5%*2*0.01</f>
-        <v>0.00024</v>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>0.45</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>3.1887755102040814E-4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>1.1388483965014577E-6</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="7"/>
+        <v>1.35E-4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">D5*0.3%*1*1</f>
-        <v>0.06</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">E5*1.5%*2*0.01</f>
-        <v>0.000246</v>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>0.47</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>3.4293552812071328E-4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>1.2701315856322716E-6</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4099999999999998E-4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">D6*0.3%*1*1</f>
-        <v>0.09</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">E6*1.5%*2*0.01</f>
-        <v>0.000255</v>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>0.48</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>3.6982248520710058E-4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>1.4223941738734638E-6</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="7"/>
+        <v>1.44E-4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="n">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>0.52</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>4.3402777777777775E-4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>1.8084490740740741E-6</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="7"/>
+        <v>1.56E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>46</v>
+      </c>
+      <c r="E40">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>4.7258979206049151E-4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>2.0547382263499631E-6</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="7"/>
+        <v>1.65E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>5.1652892561983473E-4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>2.3478587528174307E-6</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="7"/>
+        <v>1.74E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>0.64</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>5.6689342403628119E-4</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>2.6994924954108632E-6</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43">
         <v>40</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">D7*0.3%*1*1</f>
-        <v>0.12</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">E7*1.5%*2*0.01</f>
-        <v>0.000258</v>
+      <c r="E43">
+        <v>0.73</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">D8*0.3%*1*1</f>
-        <v>0.15</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">E8*1.5%*2*0.01</f>
-        <v>0.000264</v>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">D9*0.3%*1*1</f>
-        <v>0.18</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">E9*1.5%*2*0.01</f>
-        <v>0.000267</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <f aca="false">D10*0.3%*1*1</f>
-        <v>0.21</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">E10*1.5%*2*0.01</f>
-        <v>0.000267</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">D11*0.3%*1*1</f>
-        <v>0.225</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">E11*1.5%*2*0.01</f>
-        <v>0.00027</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">E16*1.5%*2*0.01</f>
-        <v>2.7E-005</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">E17*1.5%*2*0.01</f>
-        <v>3E-005</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">E18*1.5%*2*0.01</f>
-        <v>3E-005</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">E19*1.5%*2*0.01</f>
-        <v>3.3E-005</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">E20*1.5%*2*0.01</f>
-        <v>3.6E-005</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">E21*1.5%*2*0.01</f>
-        <v>4.8E-005</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">E22*1.5%*2*0.01</f>
-        <v>6.3E-005</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">E23*1.5%*2*0.01</f>
-        <v>8.1E-005</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">E24*1.5%*2*0.01</f>
-        <v>0.000114</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
-        <v>185</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">E25*1.5%*2*0.01</f>
-        <v>0.000138</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">E26*1.5%*2*0.01</f>
-        <v>0.000165</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">E27*1.5%*2*0.01</f>
-        <v>0.000225</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false"> (1*90)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <f aca="false">E28*1.5%*2*0.01</f>
-        <v>0.000261</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">(0.5*100)/100</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <f aca="false">D33 ^(-2)</f>
-        <v>0.000277777777777778</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">(2*D33^(-3))*0.1</f>
-        <v>9.25925925925926E-007</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <f aca="false">E33*1.5%*2*0.01</f>
-        <v>0.000129</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <f aca="false">D34 ^(-2)</f>
-        <v>0.000297265160523187</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">(2*D34^(-3))*0.1</f>
-        <v>1.02505227766616E-006</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <f aca="false">E34*1.5%*2*0.01</f>
-        <v>0.000132</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D35" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <f aca="false">D35 ^(-2)</f>
-        <v>0.000318877551020408</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <f aca="false">(2*D35^(-3))*0.1</f>
-        <v>1.13884839650146E-006</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">E35*1.5%*2*0.01</f>
-        <v>0.000135</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <f aca="false">D36 ^(-2)</f>
-        <v>0.000342935528120713</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">(2*D36^(-3))*0.1</f>
-        <v>1.27013158563227E-006</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">E36*1.5%*2*0.01</f>
-        <v>0.000141</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <f aca="false">D37 ^(-2)</f>
-        <v>0.000369822485207101</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">(2*D37^(-3))*0.1</f>
-        <v>1.42239417387346E-006</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">E37*1.5%*2*0.01</f>
-        <v>0.000144</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <f aca="false">D38 ^(-2)</f>
-        <v>0.0004</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <f aca="false">(2*D38^(-3))*0.1</f>
-        <v>1.6E-006</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <f aca="false">E38*1.5%*2*0.01</f>
-        <v>0.00015</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <f aca="false">D39 ^(-2)</f>
-        <v>0.000434027777777778</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <f aca="false">(2*D39^(-3))*0.1</f>
-        <v>1.80844907407407E-006</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <f aca="false">E39*1.5%*2*0.01</f>
-        <v>0.000156</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <f aca="false">D40 ^(-2)</f>
-        <v>0.000472589792060492</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <f aca="false">(2*D40^(-3))*0.1</f>
-        <v>2.05473822634996E-006</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <f aca="false">E40*1.5%*2*0.01</f>
-        <v>0.000165</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <f aca="false">D41 ^(-2)</f>
-        <v>0.000516528925619835</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <f aca="false">(2*D41^(-3))*0.1</f>
-        <v>2.34785875281743E-006</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <f aca="false">E41*1.5%*2*0.01</f>
-        <v>0.000174</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <f aca="false">D42 ^(-2)</f>
-        <v>0.000566893424036281</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <f aca="false">(2*D42^(-3))*0.1</f>
-        <v>2.69949249541086E-006</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <f aca="false">E42*1.5%*2*0.01</f>
-        <v>0.000192</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D43" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <f aca="false">D43 ^(-2)</f>
-        <v>0.000625</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <f aca="false">(2*D43^(-3))*0.1</f>
-        <v>3.125E-006</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <f aca="false">E43*1.5%*2*0.01</f>
-        <v>0.000219</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0" t="n">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>